--- a/Algo-Technique.xlsx
+++ b/Algo-Technique.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
   <si>
     <t>Table 1</t>
   </si>
@@ -5785,6 +5785,6328 @@
       <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/SumOfEachBranch.ipynb</t>
     </r>
   </si>
+  <si>
+    <t>Flatten Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a function that takes in a Binary Tree, flattens it, and returns its leftmost node.
+A flattened Binary Tree is a structure that's nearly identical to a Doubly Linked List (except that nodes
+have left and right pointers instead of prev and next pointers), where nodes follow the
+original tree's left-to-right order.
+Note that if the input Binary Tree happens to be a valid Binary Search Tree, the nodes in the flattened
+tree will be sorted.
+The flattening should be done in place, meaning that the original data structure should be mutated (no
+new structure should be created).
+Each BinaryTree node has an integer value , a left child node, and a right child node.
+Children nodes can either be BinaryTree nodes themselves or None / null .
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach:  From root, find the leftmost and rightmost node. And also we need to have parent  of both . rightMost node’s right will point to the parent and parent’s left would point to the rightMost. leftMost nodes’right will point to parent and parent’s right will point to leftMost node.  We use recursive method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call a recursive method helper(root)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If root.left is None: return root
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else, call recursive method by passing root.left
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">leftSide, rightSide = helper(root.left)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"># Now apply the logic
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">rightSide.right = root
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">root.left = rightSide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">leftMost = leftSide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If root.right is None: return root
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else, call recursive method by passing root.right
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">leftSide, rightSide = helper(root.right)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"># Now apply the logic
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">leftSide.right = root
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">root.right = leftSide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">rightMost = rightSide
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return (leftMost, rightMost)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return leftMost</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/BT%20-%20Flatten%20Binary%20Tree.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Write a function that takes in a Binary Tree and inverts it. In other words, the function should swap every left node in the tree for its corresponding right node.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Use recursive method. Post order traversal.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Same method would be recursive. Ay invertBinaryTree(tree)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If tree is None: return
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call recursive method invertBinaryTree(tree.left)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call recursive method invertBinaryTree(tree.right)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Swap: tree.left, tree.right = tree.right, tree.left</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/BT%20-%20Invert%20Binary%20Tree.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Compare leaf nodes in two given Binary Tree</t>
+  </si>
+  <si>
+    <t>Consider all the leaves of a binary tree, from left to right order, the values of those leaves form a leaf value sequence.
+For example, in the given tree above, the leaf value sequence is (6, 7, 4, 9, 8).
+Two binary trees are considered leaf-similar if their leaf value sequence is the same.
+Return true if and only if the two given trees with head nodes root1 and root2 are leaf-similar.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: getLeaf of tree1 and getLeaf of tree2 and then compare both list.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If both root1 and root2 are null: return True.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If any one of root is not null, then return False
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Create two lists to capture leafs of two trees.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call recursive method  getLeaves(root1, leafList1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If root is None: return
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If root.left is None and root.right is None: leafList.append(root.val), return
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call recursive getLeaves(root.eft, leafList1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call recursive getLeaves(root.right, leafList2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If len(leafList1) != len(leafList2) return False
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For I, v in enumerate(leafList1):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If v != leafList2[I] return False
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return True</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/BT-%20Compare%20Leaf%20Traversal-Leaf-Similar%20Trees.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Check height balanced tree</t>
+  </si>
+  <si>
+    <t>You're given the root node of a Binary Tree. Write a function that returns true if this Binary Tree is
+height balanced and false if it isn't.
+A Binary Tree is height balanced if for each node in the tree, the difference between the height of its left
+subtree and the height of its right subtree is at most 1 .</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Recursively calculate the height of each node. If left node is balance, right node is balanced and difference in height of left and right nodes is not greater than 1, then its balance. We should keep height and isBalance variable and calculate it for each node recursively and also check the condition in recursion method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define a class TreeInfo, with two members, isBalance and height.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call recursive method getTreeInfo(root). It will return TreeInfo object.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If tree is None, return TreeInfo(True, 0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call recursive method for left and right subtrees.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">leftTreeInfo = getTreeInfo(tree.left)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">rightTreeInfo = getTreeInfo(tree.right)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">isBalance = (leftTreeInfo.isBalane and rightTreeInfo.isBalance and abs (leftTreeInfo.height - rightTreeInfo.height) &lt;=1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">height = max(leftTreeInfo.height, rightTreeInfo.height) + 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return TreeInfo(isBalance, height)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return treeInfo.isBalance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/BT-%20Height%20Balanced%20Binary%20Tree.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>All kind of node depth</t>
+  </si>
+  <si>
+    <t>The distance between a node in a Binary Tree and the tree's root is called the node's depth.
+Write a function that takes in a Binary Tree and returns the sum of all of its subtrees' nodes' depths.
+Each BinaryTree node has an integer value , a left child node, and a right child node.
+Children nodes can either be BinaryTree nodes themselves or None / null .</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach : Its similar to finding the depth of tree. And add the depth at each subtree. So, if there is N nodes at any subtree, so sum of depth of at each subtree = n  + (n-1) +(n-2) +…+ 1 = n*(n+1)/2.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Main method would be the recursive method. allKindsOfNodeDepths(root, depth=0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Base condition: if root is None: return 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">depthSum = depth * (depth + 1)/2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Add depthSum of node and  dpethSum of left sub tree and dpethSum of right subtree
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return depthSum + allKindsOfNodeDepths(root.left, depth +1) + allKindsOfNodeDepth(root.right, depth + 1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/BT-All%20Kind%20of%20Node%20Depths.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Sorted Array to min height BST or Create BST from In order</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>Recursion
+Binary Search</t>
+  </si>
+  <si>
+    <t>Create minimum height BST, by using sorted array.
+Or Create a BST from given In order values. In order values are sorted array.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Will use binary search technique. Calculate mid index. And Create BSR root node from mid index value. Now recursively call method for left of the mid index for left sub tree and right of mid index for right subtree.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call recursive method calculateMinHeightBST(array, startIndex = 0, endIndex = len(array)-1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If endIndex &lt; startIndex : return None
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">midIndex = (startIndex + endIndex)//2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">bst = BST(array[midIndex])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">bst.left = calculateMinHeightBST(array, startIndex, midIndex-1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">bst.right = calculateMinHeightBST(array, midIndex + 1, endIndex)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return bst
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return the recursive method</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearchTree/ArrayToMinBST.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>BST : Insert, remove, contins</t>
+  </si>
+  <si>
+    <t>Insert, remove, contains, preorder</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearchTree/BST_Delete.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Create BST from PreOrder.
+Create BST from PostOrder</t>
+  </si>
+  <si>
+    <t>Given a preorder values, create BST.
+Given a Postorder values, create BST</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearchTree/BSTFromPre_Post_Inorder_Values.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Kth Largest element in a BST</t>
+  </si>
+  <si>
+    <t>Given a BST, find Kth largest element</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Inorder traversal provides array in sorted order in ascending order. However, the ask is to get kth largest, means Kth element from revers in order traversal. We need to keep track of count and value, and run reverseInOrder traversal. Once count is  &gt;= K come out from reverseInorder method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define a class KthelargestNode to keep count and value.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">kthlargestnode = KthLargestNode(count =0, value = None)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call recursive method reverseInOrder(tree, k, kthlargestnode)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Base condition: If tree is None or kthlargestnode.count &gt;= k: return None
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call recursive method with right subtree. reverseInOrder(tree.right, k, kthlargestnode). # In the inorder traversal, we start with left subtree, but in reverse inorder we start with right subtree.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If kthlargestnode.count &lt; k:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">kthlargestnode.count += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">kthlargestnode.value = tree.value
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">reverseInOrder(tree.left, k, kthlargestnode)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return kthlargestnode.value </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearchTree/KthLargestElement.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Kth smallest element in BST</t>
+  </si>
+  <si>
+    <t>Given a BST, find the Kth smallest element</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Inorder traversal provides array in sorted order in ascending order. We need to keep track of count and value, and run InOrder traversal. Once count is  &gt;= K come out from Inorder method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define a class KthelargestNode to keep count and value.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">kthlargestnode = KthLargestNode(count =0, value = None)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call recursive method inOrder(tree, k, kthlargestnode)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Base condition: If tree is None or kthlargestnode.count &gt;= k: return None
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call recursive method with left subtree. inOrder(tree.left k, kthlargestnode). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If kthlargestnode.count &lt; k:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">kthlargestnode.count += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">kthlargestnode.value = tree.value
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">inOrder(tree.right, k, kthlargestnode)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return kthlargestnode.value </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearchTree/KthSmallestElement.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Closest Number in BST</t>
+  </si>
+  <si>
+    <t>Return closest element in a BST for a given target</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: traverse the tree with BST properties. If target &gt; root.value, then traverse towards right, otherwise towards left. Keep comparing the diff between target and root.value with earlier taken diff. Return the smallest diff.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define a variable closest = tree.value ## to store the smallest diff
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While loop till tree is not None.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While tree:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Diff = bas(target - root.val)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If diff &lt; abs(target - closest), then closest = tree.value
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If target &gt; tree.val, then tree = tree.right
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If target &lt; tree.val, then tree = tree.left
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else : Break
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return closest</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearchTree/Closest%20Number%20in%20BST.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Search a number in a given sorted array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a function that takes in a sorted array of integers as well as a target integer. The function should
+use the Binary Search algorithm to determine if the target integer is contained in the array and should
+return its index if it is, otherwise -1 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Will use two pointers technique in recession method. Starting from startIndex = 0 and end Index = len(array)-1. Calculate the midIndex. If target &gt; array[midIndex], the look at right half array, by calling recursion method by passing startIndex = mid+1 and endIndex = len(array)-1, otherwise look at the left half of array, by calling recursion method by passing startIndex = startIndex (0) and endIndex = midIndex -1. Base condition would be startIndex &gt; endIndex.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call and return recursive method binarySearch (array, left = 0, right = len(array)-1, target)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Base condition: if left &gt; right : return -1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Mid = (left + right)//2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If target == array[mid] : return mid
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If target &gt; array[mid]: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return binarySearch(array, mid+1, right, target)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else: return binarySearch(array, left, mid-1, target)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearch/Binary%20Search.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Index equals value</t>
+  </si>
+  <si>
+    <t>Sorted array</t>
+  </si>
+  <si>
+    <t>Write a function that takes in a sorted array of distinct integers and returns the first index in the array
+that is equal to the value at that index. In other words, your function should return the minimum index
+where index == array[index] .
+If there is no such index, your function should return -1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Will use two pointers, startIndex and endIndex. And approach would be similar to Binary search. Here, target is the index itself. If mid &gt; array[mid], then startIndex = mid+1, if mid &lt; array[mid] then endIndex = mid-1. If mid == array[mid], then to make sure that it is 1st index, check, if mid == 0 or mid-1 &gt; array[mid-1].
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">startIndex = 0, endIndex = len(array)-1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While loop till startIndex &lt;= endIndex:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Calculate mid = startIndex + (endIndex-startIndex)//2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If mid &gt; array[mid] : startIndex = mid+1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If mid &lt; array[mid] : endIndex = mid-1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If mid == array[mid] and (mid == 0 or mid-1 &gt; array[mid-1]) return mid # to make it first index
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return -1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearch/Index%20Equals%20Value.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Search for range</t>
+  </si>
+  <si>
+    <t>Write a function that takes in a sorted array of integers as well as a target integer. The function should
+use a variation of the Binary Search algorithm to find a range of indices in between which the target
+number is contained in the array and should return this range in the form of an array.
+The first number in the output array should represent the first index at which the target number is
+located, while the second number should represent the last index at which the target number is located.
+The function should return [-1, -1] if the integer isn't contained in the array.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach : Approach is same as Binary Search technique. Once the target is found. Then will iterate towards left till target is equal to index and iterate towards right till target is equal to index. Return [leftIndex, rightIndex]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">startIndex = 0, endIndex = len(array)-1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While loop till startIndex &lt;= endIndex:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Calculate mid = startIndex + (endIndex-startIndex)//2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If mid &gt; array[mid] : startIndex = mid+1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If mid &lt; array[mid] : endIndex = mid-1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If mid == array[mid], then leftIndex = mid, rightIndex = mid
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While leftIndex &gt;=0 and array[leftIndex] == target: leftIndex -=1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While rightIndex &lt;= len(array)-1 and array[rightIndex] == target: rightIndex += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return [leftIndex + 1, rightIndex-1]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return [-1, -1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearch/Search%20For%20Range.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Search in sorted matrix</t>
+  </si>
+  <si>
+    <t>Sorted matrix</t>
+  </si>
+  <si>
+    <t>Write an efficient algorithm that searches for a value target in an m x n integer matrix matrix. This matrix has the following properties:
+Integers in each row are sorted in ascending from left to right.
+Integers in each column are sorted in ascending from top to bottom.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Same as BinarySearch. Start from last column of 1st row. If target &gt; matrix[r][col], where r = 0 and col = len(matrix[0])-1 then look at next row (row+=1), if target &lt; matrix[r][col], then look back in same row, col -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">n = len(matrix)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">m = len(matrix[0])-1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Row =0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While row &lt; n and m&gt;=0:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If target &lt; matrix[row][m] : m-= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else if target &gt; matrix[row][m] : row -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else: return [row,m]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return [-1,-1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearch/Search-in-sorted-matrix.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Shifted Binary Search</t>
+  </si>
+  <si>
+    <t>Shifted sorted array</t>
+  </si>
+  <si>
+    <t>Write a function that takes in a sorted array of distinct integers as well as a target integer. The caveat is
+that the integers in the array have been shifted by some amount; in other words, they've been moved to
+the left or to the right by one or more positions. For example, [1, 2, 3, 4] might have turned into
+[3, 4, 1, 2] .
+The function should use a variation of the Binary Search algorithm to determine if the target integer is
+contained in the array and should return its index if it is, otherwise -1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach : Same as BinarySearch.  As array is rotated/ shifted, so need additional logic to get the target. If array is rotated in such a way that first element is less than middle element, then check if target is in the range of first half, if yes, then endIndex = mid-1, else startIndex = mid + 1. If array is rotated in such a way that first element is greater than middle element, then check if target is in the second half, if yes then startIndex = mid+1 else endIndex = mid-1. If target == array[mid] then return mid.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left = o, right = len(array)-1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While left &lt;= right:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Mid = left + (right-left)//2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If target == array[mid] : return mid
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If array[left] &lt;= array[mid]:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If target &gt;= array[left] and target&lt;array[mid]: right = mid-1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else, left = mid+1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If target &gt; array[mid] and target &lt;= array[right]: left = mid+1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else: right = mid -1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return -1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearch/Shifted%20Binary%20Search.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Maximum sum of window of size k</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Calculate the sum of each window of size K and print the maximum sum.
+Example:
+array = [2,5,1,8,2,9,1] , k = 3
+output = 19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Window size is given. First, run the loop from 0 to k and calculate the sum. Next step, keep the window fixed by sliding towards right. Means, remove element from left and add element from right. So, sum  = earlier calculated sum -element at left + element at right. This will give sum of each window of size k. Keep checking the max value and finally return max value. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define total = sum(array[:k]) # sum of first k elements in array. Now window is fixed to k.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">MaxSum = total
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left = 0, right = k, and run loop from right to len(array)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; len(array):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">total += array[right]-array[left]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">maxSum = max(total, maxSum)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Right =+ 1, left += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return maxSum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Maximum%20Sum%20of%20window%20of%20size%20K.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>First negative number in window of size k</t>
+  </si>
+  <si>
+    <t>Given array, print the first negative numbers in every window of size k. If no negative number then print 0.
+Example: 
+array = [12, -1, -7, 8, -15, 30, 16, 8], k = 3
+output = [-1,-1,-7,-15, -15, 0]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Window size is given.  Hence, approach would be same as 63.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">First, run the loop from 0 to k and store negative number in deque. If there is negative number in k window then copy the first element to result list. Next step, keep the window fixed by sliding towards right. Means, remove element from left and add element from right. If left element is negative, that means this element is added in the duque, so remove it from duque. If right element is negative, then add the element into deque, that means keeping the window of size k. Keep checking the duque, if value is there then copy the first element in to result.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define temp =  deque([]) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Store the negative value into temp, by running loop from 0 to k #  Now window is fixed to k.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Result.append(temp[0]) , if len(temp) &gt; 0, else result.append(0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left = 0, right = k, and run loop from right to len(array)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; len(array):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If array[left] &lt; 0: then temp.popleft()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If array[right] &lt; 0: then temp.append(array[right])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If len(temp): result.append(temp[0])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else: result.append(0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Right =+ 1, left += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/First%20negative%20number%20in%20window%20of%20size%20k.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Maximum of all elements in subarray</t>
+  </si>
+  <si>
+    <t>List out maximum of elements of subarray of size k from the given array.
+Example:
+array = [2,3,-1,2,5,1,2,3,-2,7]
+k = 3
+output = [3,3,5,5,5,3,3,7]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Window size is given.  Hence, approach would be same as 63.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">First, run the loop from 0 to k and store the max number in deque. Copy the first element to result list. Next step, keep the window fixed by sliding towards right. Means, remove element from left and add element from right. If left element is there in the duque, then remove it from duque. Add the right element into deque, that means keeping the window of size k. Keep updating the result from duque’s first element. Return the result
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define temp =  deque([]) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Store the max value into temp, by running loop from 0 to k #  Now window is fixed to k.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Result.append(temp[0])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left = 0, right = k, and run loop from right to len(array)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; len(array):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If array[left]  == temp[0]: then temp.popleft()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">e  = array[right] &lt; 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While temp and e &gt; temp[-1]: temp.pop()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Temp.append(e)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Result.append(temp[0])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Right =+ 1, left += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Maximum%20of%20all%20elements%20in%20subarray.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Maximum Points you can obtain from Cards</t>
+  </si>
+  <si>
+    <t>There are several cards arranged in a row, and each card has an associated number of points. The points are given in the integer array cardPoints.
+In one step, you can take one card from the beginning or from the end of the row. You have to take exactly k cards.
+Your score is the sum of the points of the cards you have taken.
+Given the integer array cardPoints and the integer k, return the maximum score you can obtain.
+ Example 1:
+Input: cardPoints = [1,2,3,4,5,6,1], k = 3
+Output: 12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Window size is given. This is same as 63, with slight trick.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Card can be chosen from start or end of array. We will start from right. So, will create the window from end to k elements. Let right = len(array) - k . First, run the loop from right  to end  and calculate the sum. Next step, keep the window fixed by sliding towards right. Means, add element from left and remove element from right. So, sum  = earlier calculated sum +element at left - element at right. This will give sum of each window of size k. Keep checking the max value and finally return max value. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">right = len(array) -k
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define total = sum(array[right:]) # sum of first k elements in array. Now window is fixed to k.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">MaxSum = total
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left = 0, and run loop from right to len(array)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; len(array):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">total += array[left]-array[right]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">maxSum = max(total, maxSum)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Right =+ 1, left += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return maxSum</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Maximum%20Points%20You%20Can%20Obtain%20from%20Cards.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Largest Sum array of K</t>
+  </si>
+  <si>
+    <t>Given array of numbers, find the largest subarray having sum of elements is k.
+example:
+array = [4,1,1,1,1,1,2,3,5]
+k = 5
+output = 5 //subarray = [1,1,1,1,1]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach : Here Window size is not given. But asking subarray, so it is a sliding window question. Run the loop from 0 to len(array), with two pointers left = 0 and right = 0. Sum += array[right]. Check if sum is &gt; k, if yes, then start removing items with another loop until sum &gt;k, from subarray by sliding left pointer from 0. If sum == k, then calculate length and check if it is maxLength. Move the right pointer.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">maxLength =0, sum =0, left = 0, right = 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; len(array)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">sum  += array[right]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While sum &gt; k and left &lt;= right:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Sum -= array[left]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">left += 1 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If sum == k: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Length = max(length, right-left+1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">right += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return maxLength</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Largest-Sum-Array-Of-K.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Minimum size subarray with a greater sum</t>
+  </si>
+  <si>
+    <t>Given an array of positive integers nums and a positive integer target, return the minimal length of a 
+subarray
+ whose sum is greater than or equal to target. If there is no such subarray, return 0 instead.
+Example 1:
+Input: target = 7, nums = [2,3,1,2,4,3]
+Output = 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach : Window size is not given, But asking for subarray, so it is a sliding window problem. Run the loop from 0 to len(array), with two pointer left = 0 and right =0. Sum += array[right]. Check if sum &gt; k, if yes, then start removing items with another loop until sum &gt;= k, from subarray by sliding left pointer from 0. And keep checking the minimum length.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define left - 0, right = 0, sum = 0 and minLen = float(“inf”)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; len(nums):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Sum += nums[right]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While sum&gt;= target and left &lt;= right:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Sum -= nums[left]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">minLen = min(minLen, right-left + 1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">right += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return 0 if minLen == float(“inf”) else length</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Smallest%20Subarray%20with%20a%20Greater%20Sum.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Minimum Window substring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given two string s1 and s2. Find the minimum substring in s1 so that s2 characters should be there. Order of s2 characters are not necessary important also no need to have continuoius s2's characters.
+Example:
+s1 = "aabcdssddefr"
+s2 = "bds"
+output= 4 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Here, window size is not given, however need to find out substring. So, it is a sliding window problem.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">First of all, store each letter with count in hashmap. Store total count of unique letters. Run the loop from 0 to len(array), with two pointers left = 0 and right =0.  If  letter at position right in string is in hashmap, reduce the count. If count == 0 then unique chars will reduce by 1.  Loop until unique chars == 0. Start sliding left pointers and keep increasing the count of chars in hashmap, if char is present in hashmap. If count is 1, then increase unique chars. Keep checking the length of substring. Return the minimum length.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define hashmap as temp.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Run the loop for s2 and store all chars and count in hashmap.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define, right =0, left = 0, uniqueChars = len(temp) and result = float(“inf”).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; len(s1):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">c = s1[right]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If c temp:  then temp[c] -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If temp[c] == 0 : then uniqueChars -=1 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While uniqueChars == 0: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">c = s1[left]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If c in temp: temp[c] += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If temp[c] == 1: uniqueChars += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">result = min(result, right -left + 1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Right += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>return result</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Minimum-Window-Substring.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Longest Substring without repeating Characters</t>
+  </si>
+  <si>
+    <t>string = “aaabb”, output = 2
+string = “abcdeeefff”, output = 5
+string = “abcaabcdefggghhf”, output = 7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Here, window size is not given, however need to find out substring. So, it is a sliding window problem.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Run the loop till the end. Store characters in hashmap with count. As, characters should not be repeated, so the number of unique characters length (len(temp)) should equal to length of substring. Run the loop, while length of substring &gt; unique chars. Slide left pointers, and remove chars from hashmap. If unique Chars == length of substring, then store the max length.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define, right = 0, left = 0, length =0 and temp as hashmap.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; len(string):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">c = s[right]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">temp[c] = temp.get(c, 0) + 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right-left+1 &gt; len(temp):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">c = s[left]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If c in temp: temp[c] -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> If temp[c]  == 0:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Temp.pop(c)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If len(temp) == (rigjt -left +1):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Length = max(length, right-left+1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">right += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return length</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Longest-SubString-Without-Repeating-Characters.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Longest substring with k unique characters</t>
+  </si>
+  <si>
+    <t>string = "bcdaabbcccbbdbacyz"
+k = 3
+Output: 9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Same as above. Here, window size is not given, however need to find out substring. So, it is a sliding window problem.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Run the loop till the end. Store characters in hashmap with count. As, characters should not be repeated, so the number of unique characters length (len(temp)) should equal to length of substring. Run the loop, while  unique chars&gt; k. Slide left pointers, and remove chars from hashmap. If unique Chars == k, then store the max length.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define, right = 0, left = 0, length =0 and temp as hashmap.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; len(s):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">c = s[right]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">temp[c] = temp.get(c, 0) + 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While  uniqueChar &gt; k:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">c = s[left]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If c in temp: temp[c] -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> If temp[c]  == 0:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Temp.pop(c)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If uniqueChars == k:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Length = max(length, right-left+1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">right += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return length</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Longest-SubString-With-K-Unique-Characters.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Fruits into Baskets</t>
+  </si>
+  <si>
+    <t>You are visiting a farm that has a single row of fruit trees arranged from left to right. The trees are represented by an integer array fruits where fruits[i] is the type of fruit the ith tree produces.
+You want to collect as much fruit as possible. However, the owner has some strict rules that you must follow:
+You only have two baskets, and each basket can only hold a single type of fruit. There is no limit on the amount of fruit each basket can hold.
+Starting from any tree of your choice, you must pick exactly one fruit from every tree (including the start tree) while moving to the right. The picked fruits must fit in one of your baskets.
+Once you reach a tree with fruit that cannot fit in your baskets, you must stop.
+Given the integer array fruits, return the maximum number of fruits you can pick.
+Example 1:
+Input: fruits = [1,2,1]
+Output: 3
+Explanation: We can pick from all 3 trees.
+Example 2:
+Input: fruits = [0,1,2,2]
+Output: 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach : It is same problem as above, “Longest substring with K unique characters”. Here, K = 2 (number of basket to maximum types of fruits you can take). And array of tree is string, that is based on the statement, “ Once you reach a tree with fruit that can not fit in your basket, you must stop”, so it is a continuous window. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define, right = 0, left = 0, length =0 and temp as hashmap.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; len(fruits):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">c = fruits[right]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">temp[c] = temp.get(c, 0) + 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While  uniqueChar &gt; 2:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">c = fruits[left]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If c in temp: temp[c] -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> If temp[c]  == 0:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Temp.pop(c)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Length = max(length, right-left+1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">right += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return length</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Fruit%20Into%20Baskets.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Count of occurrence of Anagaram of a given pattern</t>
+  </si>
+  <si>
+    <t>Find the occurrence of anagram of given pattern in the given string.
+Anagram of string means: same lettres in any order. example: Anagram of abc are abc, acb, bca, bac, cab, cba.
+Example:
+string = "aaabaabacbbaaabaa
+pattern = "aaba"
+output = 8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Here, it is not asking the substring, but still we can use the sliding window technique. It is similar to above. But this time, we will not return the length, but count of occurrence. First of all, store each letter with count in hashmap. Store total count of unique letters. Run the loop from 0 to len(array), with two pointers left = 0 and right =0.  If  letter at position right in string is in hashmap, reduce the count. If count == 0 then unique chars will reduce by 1.  Loop until unique chars == 0. Start sliding left pointers and keep increasing the count of chars in hashmap, if char is present in hashmap. If count is 1, then increase unique chars. Keep checking the length of substring, if it is same as len(pattern) then increase the count. Return the count.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define hashmap as temp.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Run the loop for pattern and store all chars and count in hashmap.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define, right =0, left = 0, uniqueChars = len(temp) and result = float(“inf”).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; len(s1):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">c = s1[right]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If c temp:  then temp[c] -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If temp[c] == 0 : then uniqueChars -=1 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While uniqueChars == 0: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">c = s1[left]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If c in temp: temp[c] += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If temp[c] == 1: uniqueChars += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If right - left+ 1 == len(pattern) : count += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Right += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>return count</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Count%20of%20occurrence%20of%20anagram%20in%20a%20string.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Substring with concatenation of all words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given a string s and an array of strings words of the same length. Return all starting indices of substring(s) in s that is a concatenation of each word in words exactly once, in any order, and without any intervening characters.
+You can return the answer in any order.
+Example 1:
+Input: s = "barfoothefoobarman", words = ["foo","bar"]
+Output: [0,9]
+Explanation: Substrings starting at index 0 and 9 are "barfoo" and "foobar" respectively.
+The output order does not matter, returning [9,0] is fine too.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Here, looking for substring, so will use sliding window. First store all words in hashmap. Start the loop from left = 0 to (end of string - number of chars in all words). Copy the hashmap and right = left. So that it can be used in each iteration. Second loop start from right to right + number of chars in all words. Idea is to take the characters of size of word and check if it is in the hashmap. If not, or count of this word in hashmap == 0, then break inner loop and iterate from outer loop. If yes, then reduce the count of this word in hashmap. Also as one word is matched so reduce the word count. Right += size of word. Come out from inner loop. If word count == 0, then append result with left. Left += 1. Return result.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">word_count = len(words), wordSize = len(word[0]), totalChars = word_count * wordSize
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Defin hashmap as temp.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Run a loop for words: add the word as key and count as value.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define result as list, right = 0 and left = 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While left &lt; len(string) - totalChars + 1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">wordCount  = word_count, temp_words = temp.copy, right = left
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; left + totalChars:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">W = string[right: right + wordSize]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If w not in temp_words or temp_words[w] ==0: break
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else, temp_words[w] -= 1, wordCount -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Right += wordSize
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If wordCount == 0: result.append(left)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return result</t>
+    </r>
+  </si>
+  <si>
+    <t>Minimum number of swap to group all 1s together in circular array</t>
+  </si>
+  <si>
+    <t>A swap is defined as taking two distinct positions in an array and swapping the values in them.
+A circular array is defined as an array where we consider the first element and the last element to be adjacent.
+Given a binary circular array nums, return the minimum number of swaps required to group all 1's present in the array together at any location.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Find the number of all 1's in the array, say K. Now, window is of size k. The minimum number of swap means, find minimum number of zeros in the window.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">As it is circular array, so iterate array = 2 * length of array.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define k = number of 1 in nums = nums.count(1) # fixed window size
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define zeros = number of zeros in k window = nums.count([:k]).count(0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">minSwap = zeros
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left, right = 0, k, n = len(array)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt; 2* len(array):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If 0 = array[left %n] then zeros -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If 0 == array[right%n] then zeros += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">minSwap = min(minSwap, zeros)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left += 1, right += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return minSwap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Minimum-Number-Of-Swap-to-Group-All-1s-Together-circularArray.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Minimum number of swap to group all 1s together in array</t>
+  </si>
+  <si>
+    <t>Given a binary array data, return the minimum number of swap required to group all 1's present in the array together in any place in the array.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: It is exactly same problem as above. In place of circular array, it is looking in normal array.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define k = number of 1 in nums = nums.count(1) # fixed window size
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define zeros = number of zeros in k window = nums.count([:k]).count(0)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">minSwap = zeros
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left, right = 0, k
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While right &lt;  len(array):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If 0 = array[left] then zeros -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If 0 == array[right] then zeros += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">minSwap = min(minSwap, zeros)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Left += 1, right += 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return minSwap</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Minimum-Number-Of-Swap-to-Group-All-1s-Together.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>House Robber (HR)</t>
+  </si>
+  <si>
+    <t>DP
+HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are a professional robber planning to rob houses along a street. Each house has a certain amount of money stashed, the only constraint stopping you from robbing each of them is that adjacent houses have security systems connected and it will automatically contact the police if two adjacent houses were broken into on the same night.
+Given an integer array nums representing the amount of money of each house, return the maximum amount of money you can rob tonight without alerting the police.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: If we are at some house, logically, we have 2 options: we can choose to rob this house, or we can choose to not rob this house.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If we decide not to rob the house, then we don't gain any money. Whatever money we had from the previous house is how much money we will have at this house - which is dp(i - 1).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If we decide to rob the house, then we gain nums[i] money. However, this is only possible if we did not rob the previous house. This means the money we had when arriving at this house is the money we had from the previous house without robbing it, which would be however much money we had 2 houses ago, dp(i - 2). After robbing the current house, we will have
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp(i - 2) + nums[i] money. From these two options, we always want to pick the one that gives us maximum profits. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Putting it together, we have our recurrence relation: dp(i)=max(dp(i - 1), dp(i - 2) + nums[i])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define dp = [0] * n, where n = len(nums)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Base case: dp[0] = nums[0] ## There is only one house.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Base case : dp[1] = max(nums[0], nums[1]) # if there are two houses.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Loop from 2 to n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[i] = max(dp[i-2] + nums[i], dp[i-1])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return dp[-1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/HR-HouseRobber.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">House Robber II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are a professional robber planning to rob houses along a street. Each house has a certain amount of money stashed. All houses at this place are arranged in a circle. That means the first house is the neighbor of the last one. Meanwhile, adjacent houses have a security system connected, and it will automatically contact the police if two adjacent houses were broken into on the same night.
+Given an integer array nums representing the amount of money of each house, return the maximum amount of money you can rob tonight without alerting the police.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: It is extension of above problem (HR). Here, it is circular. So, if robber start from 1st house then he can not rob to last house, as both are adjacent. Or, if robber wants to rob last house then he can not rob at first house. So, we have to take max of both scenario. 1. Take the max from 1st to n-1 houses, and second house to nth house.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If len(nums) == 0, return nums[0] or if len(nums) == 2, return max(nums[0], nums[1])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return max(houseRobber(nums[1:]), houseRobber([: len(nums) -1])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Call houseRobber method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define dp = [0] * n, where n = len(nums)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Base case: dp[0] = nums[0] ## There is only one house.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Base case : dp[1] = max(nums[0], nums[1]) # if there are two houses.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Loop from 2 to n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[i] = max(dp[i-2] + nums[i], dp[i-1])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return dp[-1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/HR-HouseRobber%20-II.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Minimum cost climbing stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an integer array cost where cost[i] is the cost of ith step on a staircase. Once you pay the cost, you can either climb one or two steps.
+You can either start from the step with index 0, or the step with index 1.
+Return the minimum cost to reach the top of the floor. Here top floor is (n+1)th position. If input array size is n (in below question it is 3) then top floor is (n+1)th position, in below example top floor is 4th.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach : It is similar to House robber (HR) problem. Need to choose at ith stair, either used (I-1)th stair or (I-2)th stair. Recurrence relationship = dp[I] = min(dp[i-2] + costs[i-2], dp[i-1]+costs[i-1])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define dp = [0] * (n+1), where n = len(costs)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Base case: dp[0] = 0 ## There is only one house.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Base case : dp[1] = 0# if there are two houses.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Loop from 2 to n+1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[i] = min(dp[i-2] +costs[i-2], dp[I-1]+costs[I-1])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return dp[-1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/HR-MinimumCostClimbingStairs.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Delete and Earn</t>
+  </si>
+  <si>
+    <t>You are given an integer array nums. You want to maximize the number of points you get by performing the following operation any number of times:
+Pick any nums[i] and delete it to earn nums[i] points. Afterwards, you must delete every element equal to nums[i] - 1 and every element equal to nums[i] + 1.
+Return the maximum number of points you can earn by applying the above operation some number of times.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach : This problem is similar to Houserobber. Here also, adjuscent numbers are not counted. Only difference is that, same number can occur multiple times. So, count the same number, and store into array at position representing by number.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Create an array, having sum of all numbers at that position . Ex: if 3 is in the original array two time. Then new array should have 6 at position 3. Count  = [0] *n, where n = max(nums) + 1. Count is initialised with 0.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Loop for all num in nums:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">count[num] = count[num] + num
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Base condition: if n ==1: return count[0]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define dp = [0] * n , where n  = max(nums) +1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[0] = count[0]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[1] = max(count[o], count[1])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Loop from 2 to n
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[i] = max(dp[i-2] + nums[i], dp[i-1])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return dp[-1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/HR-Delete-And-Earn.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Knapsack 0-1</t>
+  </si>
+  <si>
+    <t>DP
+Knapsack -0-1</t>
+  </si>
+  <si>
+    <t>Given items wieghts and value, given maximum capacity of knapsack. Return the maximum value of all items packed in the knapscak. Items can not be fraction also, you can not take same item again.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: There are multiple approaches. Recursion with memoization. Dynamic programming, with 2-D dp (n - row and m - column), 2-D dp(2-row and m-column) and 1-D dp(1-row, with m-column). Here, dp represents the maximum value can be obtained. If weight size is less than or equal to capacity, then we have two choices, either consider this weight or do not consider. Take the max of both choices and store in dp.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps: (2-D ), space complexity O(n*capacity)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define dp of size nxcapacity and initialise with 0. dp = [[0 for _ in range(capacity+1] for _ in range(n+1)]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For loop from I to n+1, I :  # here n is the size of weights array.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For loop from 1 to capacity +1, j:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Check if weights[I-1] &lt;= j:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[i][j] = max(dp[i-1][j], values[i-1] + dp[i-1][j-weights[i-1])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else: dp[i][j] = dp[i-1][j]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return dp[-1][-1]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps : (2-D), space complexity O(2 * capacity)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Here, define dp of size 2 x capacity and initialise to zero. dp = [[0 for _ in range(Capacity +1] for _ in range(2)]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Rest implementation would be same.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">As, dp is limited to two rows only, so access the dp in the range of 2. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">So, in place of dp[I], use dp[I%2] and inlace of dp[i-1] use dp[(I-1)%2]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Also return dp[n%2][-1]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps: 1-D, space complexity O(capacity)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Here, define dp of size capacity. dp = [0] * (capacity +1).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For loop from 1 to n+1, I :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For loop from capacity to 1 in reverse order. So, that older data can be used. for j in range(capacity, 0, -1).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Check if weights[i-1] &lt;= j: if yes, then
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[j] = max(dp[j], values[i-1] + dp[j-weights[i-1]]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return dp[-1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/KnapSack-0-1%20(recursive%2C%20memoization%2C%20top-down).ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Knapsack-count-of-subset-for-a-given-sum</t>
+  </si>
+  <si>
+    <t>Return number of subsets in a given array which are having sum equal to given value. Return zero if no such subset available.
+Example:
+array = [2,3,5,6,8,10]
+sum = 10
+output = 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Similar to above one.  Here consider bag capacity is equal to value. Weights are equal to numbers. Rets is same. Additionally, we need to initialise the dp, by considering, if value = 0, then for any numbers in array, subset is 1.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Since, we need to return number of subsets, so in place of max, we will add both choices (include the number or not include the number).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps: (2-D ), space complexity O(n*value)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define dp of size n x value and initialise with 0. dp = [[0 for _ in range(value+1] for _ in range(n+1)]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Initialise, for i in range(n+1) : dp[i][0] = 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For loop from 0 to n+1, I :  # here n is the size of weights array. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For loop from 1 to value +1, j:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Check if array[i-1] &lt;= j:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[i][j] = dp[i-1][j] + dp[i-1][j-array[i-1]]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else: dp[i][j] = dp[i-1][j]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return dp[-1][-1]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps : (2-D), space complexity O(2 * value)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Here, define dp of size 2 x value and initialise to zero. dp = [[0 for _ in range(value +1] for _ in range(2)]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Initialise , for I in range(2): dp[i][0] = 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Rest implementation would be same.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">As, dp is limited to two rows only, so access the dp in the range of 2. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">So, in place of dp[I], use dp[I%2] and inlace of dp[i-1] use dp[(I-1)%2]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Also return dp[n%2][-1]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps: 1-D, space complexity O(value)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Here, define dp of size value. dp = [0] * (value +1).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Initialise, dp[0] = 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For loop from 1 to n+1, I :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For loop from value to 1 in reverse order. So, that older data can be used. for j in range(value, 0, -1).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Check if array[i-1] &lt;= j: if yes, then
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[j] = max(dp[j] + dp[j-array[i-1]]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return dp[-1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/Knapsack-count-of-subset-for-a-given-sum.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Knapsack subset sum</t>
+  </si>
+  <si>
+    <t>Given array of numbers and one vlaue. Return True or False, if value is possible by adding subsets of array.
+subset of array [1,2,3] are [],[1],[2],[3],[1,2],[1,3],[2,3],[1,2,3].
+Examples:
+array = [1,2,3,7,8,10]
+value = 11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach : Same as above, in place of addition of both choices, here, we need to do or operation. Below are slight changes.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Initialisation : dp = [[False for _ in range(value+1)] for _ in range(n+1)]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[i][j] = dp[i-1][j] or dp[i-1][j-array[i-1]]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Similar changes in all two space optimised solutions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Knapsack Count for subset for given difference</t>
+  </si>
+  <si>
+    <t>Given array, find the number of subsets whose difference is given.
+Example: 
+array = [1,1,2,3]
+diff = 1
+output = 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: This is similar to subset sum problem. Let s1 and s2 are two subsets. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">so, s1-s2 = diff
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">s1 + s2 = s (s is the sum of array). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">2s1 = s + diff
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">s1 = (s+diff)/2 . So, find if subsets whose sum is (s+diff)/2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps to find the value = (s+diff)/2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">S = sum(array)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Total  = (s + diff)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If total %2 != 0: return 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Total = total //2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Rest all have same steps as above. Also with space optimisation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/Knapsack-Count-subset-for-given-difference.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Knapsack-Equal-sum-partition</t>
+  </si>
+  <si>
+    <t>Given array of numbers, partition the array in two such that sum of numbers in each partition should be same.
+Example:
+array = [1,5,11,5]
+output = True //[1,5,5], [11]</t>
+  </si>
+  <si>
+    <t>Approach: This is similar to subset sum problem. Here vale = sum(array)//2.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/Knapsack-Equal-sum-partition.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Knapsack-TargetSumWithApplyingSign</t>
+  </si>
+  <si>
+    <t>Given array and target sum. Apply sign (+ or -) before each number in array so that sum should be equal to gieven target.
+Return the number of such combinations.
+Example:
+array = [1,1,2,3]
+target = 1
+output = 3</t>
+  </si>
+  <si>
+    <t>Approach: Basically, it is similar to target difference problem. Asusume all +ve numbers are in one subset (s1) and negative numbers are another subset (s2) and you need to have s1-s2 = diff (target)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/Knapsack-TargetSumWithApplyingSign.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Knapsack-Minimum-subset-sum-difference</t>
+  </si>
+  <si>
+    <t>Given array, create subset of array in such a way that difference of sum of each subset should be minimum.
+Example:
+array = [1,6,11,5]
+output = 1</t>
+  </si>
+  <si>
+    <t>Approach: Similar to Subset sum problem.
+Need to find min(s1-s2). s1+s2 = s (sum of elements in array). So, need to find min(s-2s1). Find the possibility of subset sum for s. The last row of DP will have true or false of each number from 1 to . Take all True value positions in the array of probable sum say probableSumList.
+Now, since we are looking for s1, so will take half of probableSumList and calculate (s-2s1) and take minimum value.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/Knapsack-Minimum-subset-sum-difference.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Knapsack unbounded</t>
+  </si>
+  <si>
+    <t>DP
+Knapsack unbounded</t>
+  </si>
+  <si>
+    <t>Unbounded knapsack means, we can have same items multiple times in the knapsacks.
+While choosing an item, we can select the same item multiple times. But if not taken then go to next item do not consider that item again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach: As weight can be taken unlimited times, so no need to track the weights.  So, it is similar to knapsack-0-1 problem, but weight will not be counted. So, equation would be.
+dp[i][j] = max(dp[I][j-weights[i-1]] + values[i-1] , dp[i-1][j]) ## Here when choosing the weight, we did not reduce I to i-1. However, while not choosing the weight, we reduced I to i-1.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/KnapSack%20unbounded.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Knapsack-Minimum-Number-Of-Coins-Change</t>
+  </si>
+  <si>
+    <t>Find minimum number of coins to form given amount else return -1
+Example:
+coins = [1,2,5] , amount = 11
+output = 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Similar to Unbounded knapsack. Here in place of weight, we have coins array. In place of capacity, we have amount. In place of value addition for each weight, we have to add as number of coin increment on coin selection.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Initialise dp. dp = [float(“inf”)] * (amount +1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[0] = 0 # when amount =0, then number of coins =0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For c in coins:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For j in range(1, amount +1):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If c &lt;= j:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[j] = min(1+dp[j-c], dp[j])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return dp[-1] if dp[-1] != float(“inf”) else -1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/Knapsack-Minimum-Number-Of-Coins-Change.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>knapsack-Maximum-Number-Of-Way-Coins-Change</t>
+  </si>
+  <si>
+    <t>Return the number of ways coins can be form given sum.
+Example:
+coins = [1,2,3]
+sum = 5
+output:5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: This is similar to unbounded knapsack problem. Now we have to count the number of ways. Base condition would be dp[0] = 1 . As, if sum =0, there is 1 way for coin to make zero. Rest is same.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define dp, dp = [0] * (sum+1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp [0] = 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For c in coins:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For j in range(1, sum+1):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If c &lt;= j:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp[j] = dp[j] + dp[j-c]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return dp[-1]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/knapsack-Maximum-Number-Of-Way-Coins-Change.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Longest common subsequence</t>
+  </si>
+  <si>
+    <t>DP
+LCS</t>
+  </si>
+  <si>
+    <t>Given two string, return the length of longest common subsequence between two strings and common subsequence.
+A subsequence is a sequence that appears in the same relative order, but not necessarily contiguous. For example, “abc”, “abg”, “bdf”, “aeg”, ‘”acefg”, .. etc are subsequences of “abcdefg”. 
+Example:
+str1 = "abcdgh"
+str2 = "abedfha"
+output: [4, [abdh]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Let the input sequences be X[0..m-1] and Y[0..n-1] of lengths m and n respectively. And let L(X[0..m-1], Y[0..n-1]) be the length of LCS of the two sequences X and Y. Following is the recursive definition of L(X[0..m-1], Y[0..n-1]).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">If last characters of both sequences match (or X[m-1] == Y[n-1]) then  +L(X[0..m-1], Y[0..n-1]) = 1 + L(X[0..m-2], Y[0..n-2])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="18"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">If last characters of both sequences do not match (or X[m-1] != Y[n-1]) then  +L(X[0..m-1], Y[0..n-1]) = MAX ( L(X[0..m-2], Y[0..n-1]), L(X[0..m-1], Y[0..n-2]) )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define dp = [[0 for _ in range(m+1)] for _ in range(n+1)], where, n = len(str1) and m = len(str2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For loop from 1 to n+1 , I:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For loop from 1 to m+1, j:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If str1[i-1] == str2[ji-1] : dp[i][j] = 1 + dp[i-1][j-1]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else: dp[i][j] = max(dp[i-1][j], dp[i][j-1]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return dp[-1][-1]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Space optimisation. Only two rows of dp are involved in calculation. So we can define only two rows.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Dp  = [[0 for _ in range(m+1)] for _ in range(2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">As, dp is limited to two rows only, so access the dp in the range of 2.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">So, in place of dp[I], use dp[I%2] and inlace of dp[i-1] use dp[(I-1)%2]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Also return dp[n%2][-1]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Further Space optimisation:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define dp as 1-D. dp = [0] *(m+1), where m = len(str2) . We need previous value also for calculation, so we define prev.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">dp = [0] * (m+1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For s in str1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Prev = 0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For j in range(1, m+1):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If s == str2[j-1]: Prev, dp[j] = dp[j], prev+1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else: prev, dp[j] = dp[j], max(dp[j], dp[j-1])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return dp[-1]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Longest-common-subsequence.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Print Longest common subsequence</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: Find the dp from above steps. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If dp is 2-D.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Check if upper row for same column have same data, if yes, then move up by reducing row -1. If prev column has same data then reduce column by 1. Else this is the position where both string has same characters. Add it in list.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Define a list as seq.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">While n &gt;0 and m&gt;0 where, n = len(dp)-1 and m = len(dp[0])-1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If dp[n][m] == dp[n-1][m]:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">n-=1 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else: dp[n][m] == dp[n][m-1]:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve"> m -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Else:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Seq.append(str2[m-1])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">m -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">n -= 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Return list(reversed(seq))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If dp is 1-D:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Check if prev column has same data then reduce column by 1. Else this is the position where both string has same characters. Add it in list.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">M = len(dp) -1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Seq = []
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">For I in range(m, 0, -1):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">If dp[i] != dp[i-1]:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Seq.append(str2[i-1])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return list(reversed(seq))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Longest-common-subsequence-print.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>LCS-Longest-Repeating-Subsequence</t>
+  </si>
+  <si>
+    <t>Return the longest length of repeating subsequence in a given string.
+Example:
+str1 = "aabebcdd"
+output: 3 //abd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach : This is similar to LCS with some variation. Here, will find the LCS of same string excluding the letter at same location. Two strings are str1 and str2, with i and j are location of each letter in str1 and str2 respectively. a : i =0 and j =0, then will not consider it, but a: i =0 and j =1 or i=1 and j =0 will be considered for repeating sequence. What is happening here, repeating subsequnce will have letters repeating more than once, means they are available at more than one location, so while considering LCS for str1 and str2, will not consider letters which are at same location i ==j . However, letters which are same but at i !=j will be considered.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Str2 = str1[:] # create one more copy of str1. Now we have two string, so will run LCS for str1 and str2.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">All steps are same. Only additional check is here:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">str1[i-1] == str2[j-1] and (I !-= j) # this is an extra condition.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Longest-Repeating-Subsequence.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>Longest Palindromic subsequence from given string. Note: This is for subsequence not looking for palindromic substring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return the length of longest palindromic subsequence from given string.
+Example:
+str = "agbcba"
+output = 5 //abcba </t>
+  </si>
+  <si>
+    <t>Approach: This problem is extension of LCS. For LCS, two strings are needed. Create a second string by reversing given string. Then take the lcs of both strings.
+Steps:
+1. Same as LCS. Here String1 = string[::-1]. # reverse of string.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Longest-Palindromic-Subsequence.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>LCS-Minimum-Number-Of-Deletion-To-Make-Palindrom</t>
+  </si>
+  <si>
+    <t>Return minimum number of deletion so that given string should be palindrom.
+Example: 
+string = "agbcba"
+output = 1</t>
+  </si>
+  <si>
+    <t>Approach : This is extension of LCS problem. In specific this extension of maximum palindormic sub sequence problem. Here find the maximum palindromic subsequence and delete the extra element. As it is longest palindromic, hence deletion would be minimum. Hence find the longest palindromic subsequence and reduce it from given string. Answer would be minimum deletion of letters.
+Steps: Same as LCS. After getting lcd return n - lcs where n = len(string).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Minimum-Number-Of-Deletion-To-Make-Palindrom.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>LCS-Minimum-Number-Insertion-To-Make-Palindrom</t>
+  </si>
+  <si>
+    <t>Return minimum number of insertion so that given string should be palindrom.
+Example: 
+string = "acbcbda"
+output = 2 //need to insert d before c in first half and c before d in second half</t>
+  </si>
+  <si>
+    <t>Approach: This is simlar to LCS and deletion problem to make string palindrom. Here in place of deletion, we need to insert. Basically to make a string palindrom either we will have to delete some elements or make pair of those strings. So, in reality number of insertion or number of deletion would be same to make any string palindrom. So, solution of this problem is same as we have for deletion of elements.
+Steps: Same as deletion problem.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Minimum-Number-Insertion-To-Make-Palindrom.ipynb</t>
+    </r>
+  </si>
+  <si>
+    <t>LCS-Minimum-number-of-insertion-deletion</t>
+  </si>
+  <si>
+    <t>Given two string str1 and str2 return the number of insertion and deletion needed to make str1 same as str2.
+Example:
+str1 = "heap"
+str2 = "pea"
+Output: 1,2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Approach: This will use LCS problem.  Here, first find longest common subsequence (lcs of "heap" and "pea" =  "ea"), delete remaining letters (number of deletion = len(str1) - lcs) and then insert missing item (number of insertion = len(str2) - lcs.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Find lcs for str1 and str2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Number of deletion = n - lcs, where n = len(str1)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Number of insertion = m - lcs, where m = len(str2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Return [Number of deletion, Number of insertion]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Minimum-number-of-insertion-deletion.ipynb</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -5793,7 +12115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -5861,6 +12183,11 @@
       <sz val="10"/>
       <color indexed="17"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="18"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="4">
@@ -6002,7 +12329,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6066,12 +12393,6 @@
     <xf numFmtId="49" fontId="9" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6098,6 +12419,7 @@
       <rgbColor rgb="ff262626"/>
       <rgbColor rgb="ffff2600"/>
       <rgbColor rgb="ff040404"/>
+      <rgbColor rgb="ff273239"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -7159,7 +13481,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H48"/>
+  <dimension ref="A2:H98"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -8240,15 +14562,1137 @@
       </c>
       <c r="H47" s="12"/>
     </row>
-    <row r="48" ht="20.35" customHeight="1">
-      <c r="A48" s="21"/>
+    <row r="48" ht="260.05" customHeight="1">
+      <c r="A48" t="s" s="9">
+        <v>205</v>
+      </c>
       <c r="B48" s="10"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="C48" t="s" s="11">
+        <v>125</v>
+      </c>
+      <c r="D48" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="E48" t="s" s="20">
+        <v>206</v>
+      </c>
+      <c r="F48" t="s" s="11">
+        <v>207</v>
+      </c>
+      <c r="G48" t="s" s="11">
+        <v>208</v>
+      </c>
       <c r="H48" s="12"/>
+    </row>
+    <row r="49" ht="92.05" customHeight="1">
+      <c r="A49" t="s" s="9">
+        <v>209</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" t="s" s="11">
+        <v>125</v>
+      </c>
+      <c r="D49" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="E49" t="s" s="20">
+        <v>210</v>
+      </c>
+      <c r="F49" t="s" s="11">
+        <v>211</v>
+      </c>
+      <c r="G49" t="s" s="11">
+        <v>212</v>
+      </c>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" ht="176.05" customHeight="1">
+      <c r="A50" t="s" s="9">
+        <v>213</v>
+      </c>
+      <c r="B50" s="13">
+        <v>872</v>
+      </c>
+      <c r="C50" t="s" s="11">
+        <v>125</v>
+      </c>
+      <c r="D50" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="E50" t="s" s="20">
+        <v>214</v>
+      </c>
+      <c r="F50" t="s" s="11">
+        <v>215</v>
+      </c>
+      <c r="G50" t="s" s="11">
+        <v>216</v>
+      </c>
+      <c r="H50" s="12"/>
+    </row>
+    <row r="51" ht="176.05" customHeight="1">
+      <c r="A51" t="s" s="9">
+        <v>217</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" t="s" s="11">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="E51" t="s" s="20">
+        <v>218</v>
+      </c>
+      <c r="F51" t="s" s="11">
+        <v>219</v>
+      </c>
+      <c r="G51" t="s" s="11">
+        <v>220</v>
+      </c>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" ht="104.35" customHeight="1">
+      <c r="A52" t="s" s="9">
+        <v>221</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" t="s" s="11">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="E52" t="s" s="20">
+        <v>222</v>
+      </c>
+      <c r="F52" t="s" s="11">
+        <v>223</v>
+      </c>
+      <c r="G52" t="s" s="11">
+        <v>224</v>
+      </c>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" ht="140.05" customHeight="1">
+      <c r="A53" t="s" s="9">
+        <v>225</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" t="s" s="11">
+        <v>226</v>
+      </c>
+      <c r="D53" t="s" s="11">
+        <v>227</v>
+      </c>
+      <c r="E53" t="s" s="20">
+        <v>228</v>
+      </c>
+      <c r="F53" t="s" s="11">
+        <v>229</v>
+      </c>
+      <c r="G53" t="s" s="11">
+        <v>230</v>
+      </c>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" ht="32.05" customHeight="1">
+      <c r="A54" t="s" s="9">
+        <v>231</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" t="s" s="11">
+        <v>226</v>
+      </c>
+      <c r="D54" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="E54" t="s" s="20">
+        <v>232</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" t="s" s="11">
+        <v>233</v>
+      </c>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" ht="44.05" customHeight="1">
+      <c r="A55" t="s" s="9">
+        <v>234</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" t="s" s="11">
+        <v>226</v>
+      </c>
+      <c r="D55" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="E55" t="s" s="20">
+        <v>235</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" t="s" s="11">
+        <v>236</v>
+      </c>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" ht="188.05" customHeight="1">
+      <c r="A56" t="s" s="9">
+        <v>237</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" t="s" s="11">
+        <v>226</v>
+      </c>
+      <c r="D56" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="E56" t="s" s="20">
+        <v>238</v>
+      </c>
+      <c r="F56" t="s" s="11">
+        <v>239</v>
+      </c>
+      <c r="G56" t="s" s="11">
+        <v>240</v>
+      </c>
+      <c r="H56" s="12"/>
+    </row>
+    <row r="57" ht="164.05" customHeight="1">
+      <c r="A57" t="s" s="9">
+        <v>241</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" t="s" s="11">
+        <v>226</v>
+      </c>
+      <c r="D57" t="s" s="11">
+        <v>201</v>
+      </c>
+      <c r="E57" t="s" s="20">
+        <v>242</v>
+      </c>
+      <c r="F57" t="s" s="11">
+        <v>243</v>
+      </c>
+      <c r="G57" t="s" s="11">
+        <v>244</v>
+      </c>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" ht="152.05" customHeight="1">
+      <c r="A58" t="s" s="9">
+        <v>245</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" t="s" s="11">
+        <v>226</v>
+      </c>
+      <c r="D58" t="s" s="11">
+        <v>197</v>
+      </c>
+      <c r="E58" t="s" s="20">
+        <v>246</v>
+      </c>
+      <c r="F58" t="s" s="11">
+        <v>247</v>
+      </c>
+      <c r="G58" t="s" s="11">
+        <v>248</v>
+      </c>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" ht="176.05" customHeight="1">
+      <c r="A59" t="s" s="9">
+        <v>249</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="D59" t="s" s="11">
+        <v>227</v>
+      </c>
+      <c r="E59" t="s" s="20">
+        <v>250</v>
+      </c>
+      <c r="F59" t="s" s="11">
+        <v>251</v>
+      </c>
+      <c r="G59" t="s" s="11">
+        <v>252</v>
+      </c>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" ht="152.05" customHeight="1">
+      <c r="A60" t="s" s="9">
+        <v>253</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" t="s" s="11">
+        <v>254</v>
+      </c>
+      <c r="D60" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="E60" t="s" s="20">
+        <v>255</v>
+      </c>
+      <c r="F60" t="s" s="11">
+        <v>256</v>
+      </c>
+      <c r="G60" t="s" s="11">
+        <v>257</v>
+      </c>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" ht="176.05" customHeight="1">
+      <c r="A61" t="s" s="9">
+        <v>258</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" t="s" s="11">
+        <v>254</v>
+      </c>
+      <c r="D61" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="E61" t="s" s="20">
+        <v>259</v>
+      </c>
+      <c r="F61" t="s" s="11">
+        <v>260</v>
+      </c>
+      <c r="G61" t="s" s="11">
+        <v>261</v>
+      </c>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" ht="152.05" customHeight="1">
+      <c r="A62" t="s" s="9">
+        <v>262</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" t="s" s="11">
+        <v>263</v>
+      </c>
+      <c r="D62" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="E62" t="s" s="20">
+        <v>264</v>
+      </c>
+      <c r="F62" t="s" s="11">
+        <v>265</v>
+      </c>
+      <c r="G62" t="s" s="11">
+        <v>266</v>
+      </c>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" ht="224.05" customHeight="1">
+      <c r="A63" t="s" s="9">
+        <v>267</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" t="s" s="11">
+        <v>268</v>
+      </c>
+      <c r="D63" t="s" s="11">
+        <v>102</v>
+      </c>
+      <c r="E63" t="s" s="20">
+        <v>269</v>
+      </c>
+      <c r="F63" t="s" s="11">
+        <v>270</v>
+      </c>
+      <c r="G63" t="s" s="11">
+        <v>271</v>
+      </c>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" ht="164.05" customHeight="1">
+      <c r="A64" t="s" s="9">
+        <v>272</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D64" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E64" t="s" s="20">
+        <v>274</v>
+      </c>
+      <c r="F64" t="s" s="11">
+        <v>275</v>
+      </c>
+      <c r="G64" t="s" s="11">
+        <v>276</v>
+      </c>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" ht="224.05" customHeight="1">
+      <c r="A65" t="s" s="9">
+        <v>277</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D65" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E65" t="s" s="20">
+        <v>278</v>
+      </c>
+      <c r="F65" t="s" s="11">
+        <v>279</v>
+      </c>
+      <c r="G65" t="s" s="11">
+        <v>280</v>
+      </c>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" ht="224.05" customHeight="1">
+      <c r="A66" t="s" s="9">
+        <v>281</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D66" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E66" t="s" s="20">
+        <v>282</v>
+      </c>
+      <c r="F66" t="s" s="11">
+        <v>283</v>
+      </c>
+      <c r="G66" t="s" s="11">
+        <v>284</v>
+      </c>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" ht="212.35" customHeight="1">
+      <c r="A67" t="s" s="9">
+        <v>285</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D67" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E67" t="s" s="20">
+        <v>286</v>
+      </c>
+      <c r="F67" t="s" s="11">
+        <v>287</v>
+      </c>
+      <c r="G67" t="s" s="11">
+        <v>288</v>
+      </c>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" ht="200.05" customHeight="1">
+      <c r="A68" t="s" s="9">
+        <v>289</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D68" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E68" t="s" s="20">
+        <v>290</v>
+      </c>
+      <c r="F68" t="s" s="11">
+        <v>291</v>
+      </c>
+      <c r="G68" t="s" s="11">
+        <v>292</v>
+      </c>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" ht="176.05" customHeight="1">
+      <c r="A69" t="s" s="9">
+        <v>293</v>
+      </c>
+      <c r="B69" s="13">
+        <v>209</v>
+      </c>
+      <c r="C69" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D69" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E69" t="s" s="20">
+        <v>294</v>
+      </c>
+      <c r="F69" t="s" s="11">
+        <v>295</v>
+      </c>
+      <c r="G69" t="s" s="11">
+        <v>296</v>
+      </c>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" ht="284.05" customHeight="1">
+      <c r="A70" t="s" s="9">
+        <v>297</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D70" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E70" t="s" s="20">
+        <v>298</v>
+      </c>
+      <c r="F70" t="s" s="11">
+        <v>299</v>
+      </c>
+      <c r="G70" t="s" s="11">
+        <v>300</v>
+      </c>
+      <c r="H70" s="12"/>
+    </row>
+    <row r="71" ht="260.05" customHeight="1">
+      <c r="A71" t="s" s="9">
+        <v>301</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D71" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E71" t="s" s="20">
+        <v>302</v>
+      </c>
+      <c r="F71" t="s" s="11">
+        <v>303</v>
+      </c>
+      <c r="G71" t="s" s="11">
+        <v>304</v>
+      </c>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" ht="260.05" customHeight="1">
+      <c r="A72" t="s" s="9">
+        <v>305</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E72" t="s" s="20">
+        <v>306</v>
+      </c>
+      <c r="F72" t="s" s="11">
+        <v>307</v>
+      </c>
+      <c r="G72" t="s" s="11">
+        <v>308</v>
+      </c>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" ht="380.35" customHeight="1">
+      <c r="A73" t="s" s="9">
+        <v>309</v>
+      </c>
+      <c r="B73" s="13">
+        <v>904</v>
+      </c>
+      <c r="C73" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D73" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E73" t="s" s="20">
+        <v>310</v>
+      </c>
+      <c r="F73" t="s" s="11">
+        <v>311</v>
+      </c>
+      <c r="G73" t="s" s="11">
+        <v>312</v>
+      </c>
+      <c r="H73" s="12"/>
+    </row>
+    <row r="74" ht="296.05" customHeight="1">
+      <c r="A74" t="s" s="9">
+        <v>313</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D74" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E74" t="s" s="20">
+        <v>314</v>
+      </c>
+      <c r="F74" t="s" s="11">
+        <v>315</v>
+      </c>
+      <c r="G74" t="s" s="11">
+        <v>316</v>
+      </c>
+      <c r="H74" s="12"/>
+    </row>
+    <row r="75" ht="272.05" customHeight="1">
+      <c r="A75" t="s" s="9">
+        <v>317</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E75" t="s" s="20">
+        <v>318</v>
+      </c>
+      <c r="F75" t="s" s="11">
+        <v>319</v>
+      </c>
+      <c r="G75" t="s" s="11">
+        <v>316</v>
+      </c>
+      <c r="H75" s="12"/>
+    </row>
+    <row r="76" ht="188.05" customHeight="1">
+      <c r="A76" t="s" s="9">
+        <v>320</v>
+      </c>
+      <c r="B76" s="13">
+        <v>2134</v>
+      </c>
+      <c r="C76" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D76" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E76" t="s" s="20">
+        <v>321</v>
+      </c>
+      <c r="F76" t="s" s="11">
+        <v>322</v>
+      </c>
+      <c r="G76" t="s" s="11">
+        <v>323</v>
+      </c>
+      <c r="H76" s="12"/>
+    </row>
+    <row r="77" ht="164.05" customHeight="1">
+      <c r="A77" t="s" s="9">
+        <v>324</v>
+      </c>
+      <c r="B77" s="13">
+        <v>1151</v>
+      </c>
+      <c r="C77" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D77" t="s" s="11">
+        <v>273</v>
+      </c>
+      <c r="E77" t="s" s="20">
+        <v>325</v>
+      </c>
+      <c r="F77" t="s" s="11">
+        <v>326</v>
+      </c>
+      <c r="G77" t="s" s="11">
+        <v>327</v>
+      </c>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" ht="224.05" customHeight="1">
+      <c r="A78" t="s" s="9">
+        <v>328</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s" s="11">
+        <v>329</v>
+      </c>
+      <c r="E78" t="s" s="16">
+        <v>330</v>
+      </c>
+      <c r="F78" t="s" s="11">
+        <v>331</v>
+      </c>
+      <c r="G78" t="s" s="11">
+        <v>332</v>
+      </c>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" ht="176.05" customHeight="1">
+      <c r="A79" t="s" s="9">
+        <v>333</v>
+      </c>
+      <c r="B79" s="13">
+        <v>213</v>
+      </c>
+      <c r="C79" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D79" t="s" s="11">
+        <v>329</v>
+      </c>
+      <c r="E79" t="s" s="16">
+        <v>334</v>
+      </c>
+      <c r="F79" t="s" s="11">
+        <v>335</v>
+      </c>
+      <c r="G79" t="s" s="11">
+        <v>336</v>
+      </c>
+      <c r="H79" s="12"/>
+    </row>
+    <row r="80" ht="128.05" customHeight="1">
+      <c r="A80" t="s" s="9">
+        <v>337</v>
+      </c>
+      <c r="B80" s="13">
+        <v>746</v>
+      </c>
+      <c r="C80" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D80" t="s" s="11">
+        <v>329</v>
+      </c>
+      <c r="E80" t="s" s="16">
+        <v>338</v>
+      </c>
+      <c r="F80" t="s" s="11">
+        <v>339</v>
+      </c>
+      <c r="G80" t="s" s="11">
+        <v>340</v>
+      </c>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81" ht="200.05" customHeight="1">
+      <c r="A81" t="s" s="9">
+        <v>341</v>
+      </c>
+      <c r="B81" s="13">
+        <v>740</v>
+      </c>
+      <c r="C81" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D81" t="s" s="11">
+        <v>329</v>
+      </c>
+      <c r="E81" t="s" s="16">
+        <v>342</v>
+      </c>
+      <c r="F81" t="s" s="11">
+        <v>343</v>
+      </c>
+      <c r="G81" t="s" s="11">
+        <v>344</v>
+      </c>
+      <c r="H81" s="12"/>
+    </row>
+    <row r="82" ht="344.05" customHeight="1">
+      <c r="A82" t="s" s="9">
+        <v>345</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s" s="11">
+        <v>346</v>
+      </c>
+      <c r="E82" t="s" s="20">
+        <v>347</v>
+      </c>
+      <c r="F82" t="s" s="11">
+        <v>348</v>
+      </c>
+      <c r="G82" t="s" s="11">
+        <v>349</v>
+      </c>
+      <c r="H82" s="12"/>
+    </row>
+    <row r="83" ht="380.05" customHeight="1">
+      <c r="A83" t="s" s="9">
+        <v>350</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D83" t="s" s="11">
+        <v>346</v>
+      </c>
+      <c r="E83" t="s" s="20">
+        <v>351</v>
+      </c>
+      <c r="F83" t="s" s="11">
+        <v>352</v>
+      </c>
+      <c r="G83" t="s" s="11">
+        <v>353</v>
+      </c>
+      <c r="H83" s="12"/>
+    </row>
+    <row r="84" ht="116.35" customHeight="1">
+      <c r="A84" t="s" s="9">
+        <v>354</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D84" t="s" s="11">
+        <v>346</v>
+      </c>
+      <c r="E84" t="s" s="20">
+        <v>355</v>
+      </c>
+      <c r="F84" t="s" s="11">
+        <v>356</v>
+      </c>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85" ht="176.05" customHeight="1">
+      <c r="A85" t="s" s="9">
+        <v>357</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D85" t="s" s="11">
+        <v>346</v>
+      </c>
+      <c r="E85" t="s" s="20">
+        <v>358</v>
+      </c>
+      <c r="F85" t="s" s="11">
+        <v>359</v>
+      </c>
+      <c r="G85" t="s" s="11">
+        <v>360</v>
+      </c>
+      <c r="H85" s="12"/>
+    </row>
+    <row r="86" ht="92.35" customHeight="1">
+      <c r="A86" t="s" s="9">
+        <v>361</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D86" t="s" s="11">
+        <v>346</v>
+      </c>
+      <c r="E86" t="s" s="20">
+        <v>362</v>
+      </c>
+      <c r="F86" t="s" s="11">
+        <v>363</v>
+      </c>
+      <c r="G86" t="s" s="11">
+        <v>364</v>
+      </c>
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" ht="140.35" customHeight="1">
+      <c r="A87" t="s" s="9">
+        <v>365</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D87" t="s" s="11">
+        <v>346</v>
+      </c>
+      <c r="E87" t="s" s="20">
+        <v>366</v>
+      </c>
+      <c r="F87" t="s" s="11">
+        <v>367</v>
+      </c>
+      <c r="G87" t="s" s="11">
+        <v>368</v>
+      </c>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" ht="104.35" customHeight="1">
+      <c r="A88" t="s" s="9">
+        <v>369</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D88" t="s" s="11">
+        <v>346</v>
+      </c>
+      <c r="E88" t="s" s="20">
+        <v>370</v>
+      </c>
+      <c r="F88" t="s" s="11">
+        <v>371</v>
+      </c>
+      <c r="G88" t="s" s="11">
+        <v>372</v>
+      </c>
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" ht="68.35" customHeight="1">
+      <c r="A89" t="s" s="9">
+        <v>373</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D89" t="s" s="11">
+        <v>374</v>
+      </c>
+      <c r="E89" t="s" s="20">
+        <v>375</v>
+      </c>
+      <c r="F89" t="s" s="11">
+        <v>376</v>
+      </c>
+      <c r="G89" t="s" s="11">
+        <v>377</v>
+      </c>
+      <c r="H89" s="12"/>
+    </row>
+    <row r="90" ht="140.05" customHeight="1">
+      <c r="A90" t="s" s="9">
+        <v>378</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D90" t="s" s="11">
+        <v>374</v>
+      </c>
+      <c r="E90" t="s" s="20">
+        <v>379</v>
+      </c>
+      <c r="F90" t="s" s="11">
+        <v>380</v>
+      </c>
+      <c r="G90" t="s" s="11">
+        <v>381</v>
+      </c>
+      <c r="H90" s="12"/>
+    </row>
+    <row r="91" ht="140.05" customHeight="1">
+      <c r="A91" t="s" s="9">
+        <v>382</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="D91" t="s" s="11">
+        <v>374</v>
+      </c>
+      <c r="E91" t="s" s="20">
+        <v>383</v>
+      </c>
+      <c r="F91" t="s" s="11">
+        <v>384</v>
+      </c>
+      <c r="G91" t="s" s="11">
+        <v>385</v>
+      </c>
+      <c r="H91" s="12"/>
+    </row>
+    <row r="92" ht="412.05" customHeight="1">
+      <c r="A92" t="s" s="9">
+        <v>386</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s" s="11">
+        <v>387</v>
+      </c>
+      <c r="E92" t="s" s="20">
+        <v>388</v>
+      </c>
+      <c r="F92" t="s" s="11">
+        <v>389</v>
+      </c>
+      <c r="G92" t="s" s="11">
+        <v>390</v>
+      </c>
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" ht="332.05" customHeight="1">
+      <c r="A93" t="s" s="9">
+        <v>391</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D93" t="s" s="11">
+        <v>387</v>
+      </c>
+      <c r="E93" t="s" s="20">
+        <v>388</v>
+      </c>
+      <c r="F93" t="s" s="11">
+        <v>392</v>
+      </c>
+      <c r="G93" t="s" s="11">
+        <v>393</v>
+      </c>
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" ht="164.05" customHeight="1">
+      <c r="A94" t="s" s="9">
+        <v>394</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D94" t="s" s="11">
+        <v>387</v>
+      </c>
+      <c r="E94" t="s" s="20">
+        <v>395</v>
+      </c>
+      <c r="F94" t="s" s="11">
+        <v>396</v>
+      </c>
+      <c r="G94" t="s" s="11">
+        <v>397</v>
+      </c>
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" ht="104.35" customHeight="1">
+      <c r="A95" t="s" s="9">
+        <v>398</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D95" t="s" s="11">
+        <v>387</v>
+      </c>
+      <c r="E95" t="s" s="20">
+        <v>399</v>
+      </c>
+      <c r="F95" t="s" s="11">
+        <v>400</v>
+      </c>
+      <c r="G95" t="s" s="11">
+        <v>401</v>
+      </c>
+      <c r="H95" s="12"/>
+    </row>
+    <row r="96" ht="104.35" customHeight="1">
+      <c r="A96" t="s" s="9">
+        <v>402</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D96" t="s" s="11">
+        <v>387</v>
+      </c>
+      <c r="E96" t="s" s="20">
+        <v>403</v>
+      </c>
+      <c r="F96" t="s" s="11">
+        <v>404</v>
+      </c>
+      <c r="G96" t="s" s="11">
+        <v>405</v>
+      </c>
+      <c r="H96" s="12"/>
+    </row>
+    <row r="97" ht="116.35" customHeight="1">
+      <c r="A97" t="s" s="9">
+        <v>406</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s" s="11">
+        <v>387</v>
+      </c>
+      <c r="E97" t="s" s="20">
+        <v>407</v>
+      </c>
+      <c r="F97" t="s" s="11">
+        <v>408</v>
+      </c>
+      <c r="G97" t="s" s="11">
+        <v>409</v>
+      </c>
+      <c r="H97" s="12"/>
+    </row>
+    <row r="98" ht="116.05" customHeight="1">
+      <c r="A98" t="s" s="9">
+        <v>410</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D98" t="s" s="11">
+        <v>387</v>
+      </c>
+      <c r="E98" t="s" s="16">
+        <v>411</v>
+      </c>
+      <c r="F98" t="s" s="11">
+        <v>412</v>
+      </c>
+      <c r="G98" t="s" s="11">
+        <v>413</v>
+      </c>
+      <c r="H98" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8301,6 +15745,56 @@
     <hyperlink ref="G45" r:id="rId44" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/Medium-545.%20Boundary%20of%20Binary%20Tree.ipynb"/>
     <hyperlink ref="G46" r:id="rId45" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/Medium-545.%20Boundary%20of%20Binary%20Tree.ipynb"/>
     <hyperlink ref="G47" r:id="rId46" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/SumOfEachBranch.ipynb"/>
+    <hyperlink ref="G48" r:id="rId47" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/BT%20-%20Flatten%20Binary%20Tree.ipynb"/>
+    <hyperlink ref="G49" r:id="rId48" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/BT%20-%20Invert%20Binary%20Tree.ipynb"/>
+    <hyperlink ref="G50" r:id="rId49" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/BT-%20Compare%20Leaf%20Traversal-Leaf-Similar%20Trees.ipynb"/>
+    <hyperlink ref="G51" r:id="rId50" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/BT-%20Height%20Balanced%20Binary%20Tree.ipynb"/>
+    <hyperlink ref="G52" r:id="rId51" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinaryTree/BT-All%20Kind%20of%20Node%20Depths.ipynb"/>
+    <hyperlink ref="G53" r:id="rId52" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearchTree/ArrayToMinBST.ipynb"/>
+    <hyperlink ref="G54" r:id="rId53" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearchTree/BST_Delete.ipynb"/>
+    <hyperlink ref="G55" r:id="rId54" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearchTree/BSTFromPre_Post_Inorder_Values.ipynb"/>
+    <hyperlink ref="G56" r:id="rId55" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearchTree/KthLargestElement.ipynb"/>
+    <hyperlink ref="G57" r:id="rId56" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearchTree/KthSmallestElement.ipynb"/>
+    <hyperlink ref="G58" r:id="rId57" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearchTree/Closest%20Number%20in%20BST.ipynb"/>
+    <hyperlink ref="G59" r:id="rId58" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearch/Binary%20Search.ipynb"/>
+    <hyperlink ref="G60" r:id="rId59" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearch/Index%20Equals%20Value.ipynb"/>
+    <hyperlink ref="G61" r:id="rId60" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearch/Search%20For%20Range.ipynb"/>
+    <hyperlink ref="G62" r:id="rId61" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearch/Search-in-sorted-matrix.ipynb"/>
+    <hyperlink ref="G63" r:id="rId62" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/BinarySearch/Shifted%20Binary%20Search.ipynb"/>
+    <hyperlink ref="G64" r:id="rId63" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Maximum%20Sum%20of%20window%20of%20size%20K.ipynb"/>
+    <hyperlink ref="G65" r:id="rId64" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/First%20negative%20number%20in%20window%20of%20size%20k.ipynb"/>
+    <hyperlink ref="G66" r:id="rId65" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Maximum%20of%20all%20elements%20in%20subarray.ipynb"/>
+    <hyperlink ref="G67" r:id="rId66" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Maximum%20Points%20You%20Can%20Obtain%20from%20Cards.ipynb"/>
+    <hyperlink ref="G68" r:id="rId67" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Largest-Sum-Array-Of-K.ipynb"/>
+    <hyperlink ref="G69" r:id="rId68" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Smallest%20Subarray%20with%20a%20Greater%20Sum.ipynb"/>
+    <hyperlink ref="G70" r:id="rId69" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Minimum-Window-Substring.ipynb"/>
+    <hyperlink ref="G71" r:id="rId70" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Longest-SubString-Without-Repeating-Characters.ipynb"/>
+    <hyperlink ref="G72" r:id="rId71" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Longest-SubString-With-K-Unique-Characters.ipynb"/>
+    <hyperlink ref="G73" r:id="rId72" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Fruit%20Into%20Baskets.ipynb"/>
+    <hyperlink ref="G74" r:id="rId73" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Count%20of%20occurrence%20of%20anagram%20in%20a%20string.ipynb"/>
+    <hyperlink ref="G75" r:id="rId74" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Count%20of%20occurrence%20of%20anagram%20in%20a%20string.ipynb"/>
+    <hyperlink ref="G76" r:id="rId75" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Minimum-Number-Of-Swap-to-Group-All-1s-Together-circularArray.ipynb"/>
+    <hyperlink ref="G77" r:id="rId76" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/SlidingWindow/Minimum-Number-Of-Swap-to-Group-All-1s-Together.ipynb"/>
+    <hyperlink ref="G78" r:id="rId77" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/HR-HouseRobber.ipynb"/>
+    <hyperlink ref="G79" r:id="rId78" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/HR-HouseRobber%20-II.ipynb"/>
+    <hyperlink ref="G80" r:id="rId79" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/HR-MinimumCostClimbingStairs.ipynb"/>
+    <hyperlink ref="G81" r:id="rId80" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/HR-Delete-And-Earn.ipynb"/>
+    <hyperlink ref="G82" r:id="rId81" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/KnapSack-0-1%20(recursive%2C%20memoization%2C%20top-down).ipynb"/>
+    <hyperlink ref="G83" r:id="rId82" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/Knapsack-count-of-subset-for-a-given-sum.ipynb"/>
+    <hyperlink ref="G85" r:id="rId83" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/Knapsack-Count-subset-for-given-difference.ipynb"/>
+    <hyperlink ref="G86" r:id="rId84" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/Knapsack-Equal-sum-partition.ipynb"/>
+    <hyperlink ref="G87" r:id="rId85" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/Knapsack-TargetSumWithApplyingSign.ipynb"/>
+    <hyperlink ref="G88" r:id="rId86" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/Knapsack-Minimum-subset-sum-difference.ipynb"/>
+    <hyperlink ref="G89" r:id="rId87" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/KnapSack%20unbounded.ipynb"/>
+    <hyperlink ref="G90" r:id="rId88" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/Knapsack-Minimum-Number-Of-Coins-Change.ipynb"/>
+    <hyperlink ref="G91" r:id="rId89" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/knapsack-Maximum-Number-Of-Way-Coins-Change.ipynb"/>
+    <hyperlink ref="G92" r:id="rId90" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Longest-common-subsequence.ipynb"/>
+    <hyperlink ref="G93" r:id="rId91" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Longest-common-subsequence-print.ipynb"/>
+    <hyperlink ref="G94" r:id="rId92" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Longest-Repeating-Subsequence.ipynb"/>
+    <hyperlink ref="G95" r:id="rId93" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Longest-Palindromic-Subsequence.ipynb"/>
+    <hyperlink ref="G96" r:id="rId94" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Minimum-Number-Of-Deletion-To-Make-Palindrom.ipynb"/>
+    <hyperlink ref="G97" r:id="rId95" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Minimum-Number-Insertion-To-Make-Palindrom.ipynb"/>
+    <hyperlink ref="G98" r:id="rId96" location="" tooltip="" display="https://github.com/PramodModi/Datastructure/blob/master/Python/DynamicProgramming/LCS-Minimum-number-of-insertion-deletion.ipynb"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
